--- a/Documents/ComparisonOnlyBy_TABLE_NAME.xlsx
+++ b/Documents/ComparisonOnlyBy_TABLE_NAME.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokha\GitHub\Velera\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6DC304-1A51-4B69-A107-946887CCEAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9F114-065D-4B0E-93D8-0AFD6E41D975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="5685" windowWidth="48825" windowHeight="21780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="4530" windowWidth="48825" windowHeight="21780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rowcounts" sheetId="1" r:id="rId1"/>
+    <sheet name="CopyActivities" sheetId="2" r:id="rId2"/>
+    <sheet name="DataFlows" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$672</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CopyActivities!$A$1:$AL$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DataFlows!$A$1:$AB$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rowcounts!$A$1:$R$672</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5702" uniqueCount="2439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7297" uniqueCount="2983">
   <si>
     <t>SF_TABLE_CATALOG</t>
   </si>
@@ -7340,6 +7344,2132 @@
   </si>
   <si>
     <t>2025-03-08 13:13:57.976 -0800</t>
+  </si>
+  <si>
+    <t>SnowFlake/Stage</t>
+  </si>
+  <si>
+    <t>LS_SF_CONSOLIDATE</t>
+  </si>
+  <si>
+    <t>SnowflakeV2Table</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_TransactionVolumeAnalysisMonthly_STAGE</t>
+  </si>
+  <si>
+    <t>Azure SQL DW/Views</t>
+  </si>
+  <si>
+    <t>DataWarehouse</t>
+  </si>
+  <si>
+    <t>AzureSqlDWTable</t>
+  </si>
+  <si>
+    <t>vw_TransactionSummaryAnalysis_Monthly_NoFilter</t>
+  </si>
+  <si>
+    <t>SqlDWSource</t>
+  </si>
+  <si>
+    <t>[[sem].[s_transaction_volume_analysis_monthly_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.TRANSACTION_VOLUME_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>vw_transaction_summary_analysis_monthly</t>
+  </si>
+  <si>
+    <t>VolumeToStaging</t>
+  </si>
+  <si>
+    <t>populate_semTransactionVolumeAnalysis_singleMonth_SF</t>
+  </si>
+  <si>
+    <t>SnowFlake/SEM</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_TRANSACTION_VOLUME_ANALYSIS_MONTHLY</t>
+  </si>
+  <si>
+    <t>SnowflakeSource</t>
+  </si>
+  <si>
+    <t>Select * From CONSOLIDATE.STAGE.TRANSACTION_VOLUME_ANALYSIS_MONTHLY_STAGE
+Order By client_id, settlement_date</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.TRANSACTION_VOLUME_ANALYSIS_MONTHLY
+where settlement_date =''',pipeline().parameters.start_date,'''',' OR settlement_date &lt;  (Select DATEADD(month,-25, MAX(settlement_date)) from CONSOLIDATE.SEM.TRANSACTION_VOLUME_ANALYSIS_MONTHLY)')}</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Volume_StagingToMain</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_TransactionSpendAnalysisMonthly_STAGE</t>
+  </si>
+  <si>
+    <t>[[sem].[s_transaction_spend_analysis_monthly_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.TRANSACTION_SPEND_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>SpendToStaging</t>
+  </si>
+  <si>
+    <t>populate_semTransactionSpendAnalysis_singleMonth_SF</t>
+  </si>
+  <si>
+    <t>SnowflakeDev</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_TransactionSpendAnalysis_Monthly</t>
+  </si>
+  <si>
+    <t>Select * From CONSOLIDATE.STAGE.TRANSACTION_SPEND_ANALYSIS_MONTHLY_STAGE
+Order by client_id, settlement_date</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.TRANSACTION_SPEND_ANALYSIS_MONTHLY
+where settlement_date =''',pipeline().parameters.start_date,'''',' OR settlement_date &lt;  (Select DATEADD(month,-25, MAX(settlement_date)) from CONSOLIDATE.SEM.TRANSACTION_SPEND_ANALYSIS_MONTHLY)')}</t>
+  </si>
+  <si>
+    <t>Spend_StagingToMain</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_TransactionAnalysisMonthly_NoAccount_STAGE</t>
+  </si>
+  <si>
+    <t>vw_TransactionsAnalysis_Monthly_NoAccount</t>
+  </si>
+  <si>
+    <t>[[sem].[s_transaction_analysis_monthly_no_account_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.TRANSACTION_ANALYSIS_MONTHLY_NO_ACCOUNT_STAGE;</t>
+  </si>
+  <si>
+    <t>vw_transaction_analysis_monthly_no_account</t>
+  </si>
+  <si>
+    <t>TransToStaging_noaccount</t>
+  </si>
+  <si>
+    <t>populate_semTransactionAnalysis_singleMonth_SF</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_TransactionAnalysisMonthly_STAGE</t>
+  </si>
+  <si>
+    <t>vw_TransactionAnalysis_Monthly</t>
+  </si>
+  <si>
+    <t>[[sem].[s_transaction_analysis_monthly_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.TRANSACTION_ANALYSIS_MONTHLY_STAGE;</t>
+  </si>
+  <si>
+    <t>vw_transaction_analysis_monthly</t>
+  </si>
+  <si>
+    <t>TransToStaging</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_TransactionAnalysis_Monthly_NoAccount</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.TRANSACTION_ANALYSIS_MONTHLY_NO_ACCOUNT
+where settlement_date =''',pipeline().parameters.start_date,'''',' OR settlement_date &lt;  (Select DATEADD(month,-25, MAX(settlement_date)) from CONSOLIDATE.SEM.TRANSACTION_ANALYSIS_MONTHLY_NO_ACCOUNT)')}</t>
+  </si>
+  <si>
+    <t>Trans_StagingToMain_noaccount</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_Transaction_Analysis_Monthly</t>
+  </si>
+  <si>
+    <t>Select * From CONSOLIDATE.STAGE.TRANSACTION_ANALYSIS_MONTHLY_STAGE
+Order By client_id, settlement_date</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.TRANSACTION_ANALYSIS_MONTHLY
+where settlement_date =''',pipeline().parameters.start_date,'''',' OR settlement_date &lt;  (Select DATEADD(month,-25, MAX(settlement_date)) from sem.transaction_analysis_monthly)')}</t>
+  </si>
+  <si>
+    <t>Trans_StagingToMain</t>
+  </si>
+  <si>
+    <t>SnowFlake_STAGE_TransactionAnalysisDaily_STAGE</t>
+  </si>
+  <si>
+    <t>vw_TransactionAnalysis_Daily_NoFilter</t>
+  </si>
+  <si>
+    <t>[[sem].[s_transaction_analysis_daily_Days_Data_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.TRANSACTION_ANALYSIS_DAILY_STAGE;</t>
+  </si>
+  <si>
+    <t>vw_transaction_analysis_daily_noFilter</t>
+  </si>
+  <si>
+    <t>populate_TransStaging</t>
+  </si>
+  <si>
+    <t>populate_semTransactionAnalysis_singleDay_SF</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_TRANSACTION_ANALYSIS_DAILY</t>
+  </si>
+  <si>
+    <t>Select * From CONSOLIDATE.STAGE.TRANSACTION_ANALYSIS_DAILY_STAGE
+Order by client_id, settlement_date</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.TRANSACTION_ANALYSIS_DAILY
+where settlement_date =''',pipeline().parameters.ProcessDate,'''',' OR settlement_date &lt;  (Select DATEADD(month,-13, MAX(settlement_date)) from sem.transaction_analysis_daily)')}</t>
+  </si>
+  <si>
+    <t>populate_TransFinal</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_OnboardingAnalysis</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_OnboardingAnalys_Stage</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.SEM.ONBOARDING_ANALYSIS</t>
+  </si>
+  <si>
+    <t>STAGE OnboardAnalysis To SEM OnboardAnalysis_copy1</t>
+  </si>
+  <si>
+    <t>populate_semOnboardingAnalysis_SF</t>
+  </si>
+  <si>
+    <t>SnowFlake/Archive</t>
+  </si>
+  <si>
+    <t>Snowflake_ARCHIVE_OnboardingAnalysis_Archive</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.ARCHIVE.ONBOARDING_ANALYSIS_ARCHIVE</t>
+  </si>
+  <si>
+    <t>SEM OnboardAnalysis To Archive OnboardAnalysis</t>
+  </si>
+  <si>
+    <t>vw_OnboardingAnalysis</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.ONBOARDING_ANALYSIS_STAGE</t>
+  </si>
+  <si>
+    <t>vw_onboarding_analysis</t>
+  </si>
+  <si>
+    <t>pop_OnboardStaging</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_MerchantCategoryAnalysisMonthly_STAGE</t>
+  </si>
+  <si>
+    <t>vw_MerchantCategory_Monthly</t>
+  </si>
+  <si>
+    <t>[[sem].[s_merchant_category_analysis_monthly_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.MERCHANT_CATEGORY_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>vw_merchant_category_analysis_monthly_noFilter</t>
+  </si>
+  <si>
+    <t>ToStaging_MerchCat</t>
+  </si>
+  <si>
+    <t>populate_semMerchantCategoryAnalysis_singleMonth_SF</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_MerchantCategoryAnalysis_Monthly</t>
+  </si>
+  <si>
+    <t>Select * From CONSOLIDATE.STAGE.MERCHANT_CATEGORY_ANALYSIS_MONTHLY_STAGE
+Order By client_id, settlement_date</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.MERCHANT_CATEGORY_ANALYSIS_MONTHLY
+where settlement_date =''',pipeline().parameters.start_date,'''',' OR settlement_date &lt;  (Select DATEADD(month,-25, MAX(settlement_date)) from CONSOLIDATE.SEM.MERCHANT_CATEGORY_ANALYSIS_MONTHLY)')}</t>
+  </si>
+  <si>
+    <t>StagingToMain_MerchCat</t>
+  </si>
+  <si>
+    <t>DCI_InsightCenter</t>
+  </si>
+  <si>
+    <t>DS_SF_Stage_Transaction_Analysis_Daily_DCI</t>
+  </si>
+  <si>
+    <t>vw_TransactionAnalysis_Daily_NoFilter_dci</t>
+  </si>
+  <si>
+    <t>[[sem].[s_transaction_analysis_daily_Days_Data_noFilter_dci]</t>
+  </si>
+  <si>
+    <t>truncate table stage.transaction_analysis_daily_dci</t>
+  </si>
+  <si>
+    <t>vw_transaction_analysis_daily_noFilter_dci</t>
+  </si>
+  <si>
+    <t>populate_semDigitalTransactionAnalysis_singleDay</t>
+  </si>
+  <si>
+    <t>DS_SF_SEM_Transaction_Analysis_DCI</t>
+  </si>
+  <si>
+    <t>SnowflakeV2Source</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_CardUsageAnalysisPREAGG_Stage</t>
+  </si>
+  <si>
+    <t>vw_CardUsageAnalysis_preagg</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.CARDUSAGE_ANALYSIS_PREAGG_STAGE</t>
+  </si>
+  <si>
+    <t>vw_cardusage_analysis_preagg</t>
+  </si>
+  <si>
+    <t>pop_CardUsageStaging_preagg</t>
+  </si>
+  <si>
+    <t>populate_semCardUsageAnalysis_SF</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_CardUsageAnalysisMonthly_Stage</t>
+  </si>
+  <si>
+    <t>vw_CardUsageAnalysis_monthly</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.CARDUSAGE_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>vw_cardusage_analysis_monthly</t>
+  </si>
+  <si>
+    <t>pop_CardUsageStaging_monthly</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_CardUsageAnalysisMonthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truncate Table CONSOLIDATE.SEM.CARDUSAGE_ANALYSIS_MONTHLY
+</t>
+  </si>
+  <si>
+    <t>Move Stage To SEM CardUsageAnalysisMonthly</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_CardUsageAnalysisPREAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truncate Table CONSOLIDATE.SEM.CARDUSAGE_ANALYSIS_PREAGG;
+</t>
+  </si>
+  <si>
+    <t>Move Stage To SEM CardUsage PreAGG</t>
+  </si>
+  <si>
+    <t>Snowflake_ARCHIVE_CardUsageAnalysisMonthly_Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truncate Table CONSOLIDATE.ARCHIVE.CARDUSAGE_ANALYSIS_MONTHLY_ARCHIVE
+</t>
+  </si>
+  <si>
+    <t>Move SEM To ArchiveCardUsageAnalysisMonthly</t>
+  </si>
+  <si>
+    <t>Snowflake_ARCHIVE_CardUsageAnalysisPREAGG_Archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truncate Table CONSOLIDATE.ARCHIVE.CARDUSAGE_ANALYSIS_PREAGG_ARCHIVE;
+</t>
+  </si>
+  <si>
+    <t>Move SEM To ArchiveCardUsage PreAGG_copy1</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_CARDHOLDER_DECLINE_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>vw_CardholderDeclineAnalysis_Monthly</t>
+  </si>
+  <si>
+    <t>[[sem].[s_cardholder_decline_analysis_monthly_noFilter]</t>
+  </si>
+  <si>
+    <t>truncate table CONSOLIDATE.STAGE.CARDHOLDER_DECLINE_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>vw_cardholder_decline_analysis_monthly</t>
+  </si>
+  <si>
+    <t>DeclineToStaging</t>
+  </si>
+  <si>
+    <t>populate_semCardholderDeclineAnalysis_singleMonth_SF</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_CARDHOLDER_DECLINE_ANALYSIS_MONTHLY</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.CARDHOLDER_DECLINE_ANALYSIS_MONTHLY
+where ORIGIN_DATE =''',pipeline().parameters.start_date,'''',' OR ORIGIN_DATE &lt;  (Select DATEADD(month,-25, MAX(ORIGIN_DATE)) from CONSOLIDATE.SEM.CARDHOLDER_DECLINE_ANALYSIS_MONTHLY)')}</t>
+  </si>
+  <si>
+    <t>Decline_StagingToMain</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_AtmTransactionAnalysisMonthly_STAGE</t>
+  </si>
+  <si>
+    <t>vw_ATMTransactionAnalysis_Monthly</t>
+  </si>
+  <si>
+    <t>[[sem].[s_atm_transaction_analysis_monthly_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.ATM_TRANSACTION_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>vw_atm_transaction_analysis_monthly</t>
+  </si>
+  <si>
+    <t>ATMTransactionToStaging</t>
+  </si>
+  <si>
+    <t>populate_semATMTransactionAnalysis_singleMonth_SF</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_Atm_Transaction_Analysis_Monthly</t>
+  </si>
+  <si>
+    <t>Select * From CONSOLIDATE.STAGE.ATM_TRANSACTION_ANALYSIS_MONTHLY_STAGE
+Order By client_id, settlement_date</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.ATM_TRANSACTION_ANALYSIS_MONTHLY
+ where settlement_date =''',pipeline().parameters.start_date,'''',' OR settlement_date &lt;  (Select DATEADD(month,-25, MAX(settlement_date)) from CONSOLIDATE.SEM.ATM_TRANSACTION_ANALYSIS_MONTHLY)')}</t>
+  </si>
+  <si>
+    <t>ATMTransaction_StagingToMain</t>
+  </si>
+  <si>
+    <t>Snowflake_STAGE_AtmTerminalAnalysisMonthly_Stage</t>
+  </si>
+  <si>
+    <t>vw_ATMTerminalAnalysis_Monthly</t>
+  </si>
+  <si>
+    <t>[[sem].[s_atm_terminal_analysis_monthly_noFilter]</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.STAGE.ATM_TERMINAL_ANALYSIS_MONTHLY_STAGE</t>
+  </si>
+  <si>
+    <t>vw_atm_terminal_analysis_monthly</t>
+  </si>
+  <si>
+    <t>ATMTerminalToStaging</t>
+  </si>
+  <si>
+    <t>populate_semATMTerminalAnalysis_singleMonth_SF</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_ATMTerminalAnalysisMonthly</t>
+  </si>
+  <si>
+    <t>@{concat('Delete From CONSOLIDATE.SEM.ATM_TERMINAL_ANALYSIS_MONTHLY
+where settlement_date =''',pipeline().parameters.start_date,'''',' OR settlement_date &lt;  (Select DATEADD(month,-25, MAX(settlement_date)) from CONSOLIDATE.SEM.ATM_TERMINAL_ANALYSIS_MONTHLY)')}</t>
+  </si>
+  <si>
+    <t>ATMTerminal_StagingToMain</t>
+  </si>
+  <si>
+    <t>DS_SF_Digital_Card_Issuance_transaction_volume_report_SEM</t>
+  </si>
+  <si>
+    <t>DS_SF_digital_card_issuance_transaction_volume_report_STAGE</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE SEM.DIGITAL_CARD_ISSUANCE_TRANSACTION_VOLUME_REPORT;</t>
+  </si>
+  <si>
+    <t>Copy Stage_DCI_transaction_volume_rpt_Stage_ToSEM</t>
+  </si>
+  <si>
+    <t>populate_digital_card_issuance_transaction_volume_report</t>
+  </si>
+  <si>
+    <t>DS_SF_digital_card_issuance_transaction_volume_report_ARCHIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNCATE TABLE archive.digital_card_issuance_transaction_volume_report;  </t>
+  </si>
+  <si>
+    <t>Copy Stage_DCI_transaction_volume_rpt_SEM_To_Archive</t>
+  </si>
+  <si>
+    <t>dw_digital_card_issuance_transaction_volume_report</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE stage.digital_card_issuance_transaction_volume_report;</t>
+  </si>
+  <si>
+    <t>digital_card_issuance_transaction_volume_report</t>
+  </si>
+  <si>
+    <t>Copy digital_card_issuance_transaction_volume_report</t>
+  </si>
+  <si>
+    <t>SnowFlake/Consolidate/Sem</t>
+  </si>
+  <si>
+    <t>DS_SF_Digital_Card_Issuance_Report_SEM</t>
+  </si>
+  <si>
+    <t>SnowFlake/Consolidate/Stage</t>
+  </si>
+  <si>
+    <t>DS_SF_Digital_Card_Issuance_Report_Stage</t>
+  </si>
+  <si>
+    <t>truncate table sem.digital_card_issuance_report;</t>
+  </si>
+  <si>
+    <t>Copy Stage_Digital_Card_Issuance_Stage_To_SEM</t>
+  </si>
+  <si>
+    <t>populate_digital_card_issuance_report</t>
+  </si>
+  <si>
+    <t>DS_SF_Digital_Card_Issuance_Report_ARCHIVE</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE 
+archive.digital_card_issuance_report;</t>
+  </si>
+  <si>
+    <t>Copy Stage_Digital_Card_Issuance_SEM_To_Archive</t>
+  </si>
+  <si>
+    <t>dw_digital_card_issuance_report</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE stage.digital_card_issuance_report;</t>
+  </si>
+  <si>
+    <t>digital_card_issuance_report</t>
+  </si>
+  <si>
+    <t>Copy Digital_Card_Issuance_Report</t>
+  </si>
+  <si>
+    <t>SnowFlake/Application_DB/Rewards</t>
+  </si>
+  <si>
+    <t>LS_SF_Application_DB</t>
+  </si>
+  <si>
+    <t>DS_SF_CashbackSourceAccountTypes</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>RewardsDB</t>
+  </si>
+  <si>
+    <t>AzureSqlTable</t>
+  </si>
+  <si>
+    <t>DS_ASQL_CashbackSourceAccountTypes</t>
+  </si>
+  <si>
+    <t>AzureSqlSource</t>
+  </si>
+  <si>
+    <t>SELECT TOP (1000) [CashbackSourceAccountTypeId]
+      ,[Name]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[CashbackSourceAccountTypes]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.CASHBACKSOURCEACCOUNTTYPES</t>
+  </si>
+  <si>
+    <t>CashbackSourceAccountTypes</t>
+  </si>
+  <si>
+    <t>CopyCashbackSourceAccountTypes</t>
+  </si>
+  <si>
+    <t>PL_Rewards_to_SF_One_Time_Load</t>
+  </si>
+  <si>
+    <t>DS_SF_TransactionTypes</t>
+  </si>
+  <si>
+    <t>DS_ASQL_TransactionTypes</t>
+  </si>
+  <si>
+    <t>SELECT [TransactionTypeId]
+      ,[AccountTypeId]
+      ,[Name]
+      ,[Description]
+      ,[DefaultOption]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[TransactionTypes]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.TRANSACTIONTYPES</t>
+  </si>
+  <si>
+    <t>TransactionTypes</t>
+  </si>
+  <si>
+    <t>Copy_TransactionTypes</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsTypes</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsTypes</t>
+  </si>
+  <si>
+    <t>SELECT [RewardsTypeId]
+      ,[Name]
+      ,[Code]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[RewardsTypes]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSTYPES</t>
+  </si>
+  <si>
+    <t>RewardsTypes</t>
+  </si>
+  <si>
+    <t>Copy_RewardsTypes</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsTransactionTypes</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsTransactionTypes</t>
+  </si>
+  <si>
+    <t>SELECT [RewardsTransactionTypeId]
+      ,[RewardsProgramId]
+      ,[TransactionTypeId]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[RewardsTransactionTypes]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSTRANSACTIONTYPES</t>
+  </si>
+  <si>
+    <t>RewardsTransactionTypes</t>
+  </si>
+  <si>
+    <t>Copy_RewardsTransactionTypes</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsRoundingRules</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsRoundingRules</t>
+  </si>
+  <si>
+    <t>SELECT [RewardsRoundingRuleId]
+      ,[Name]
+      ,[Code]
+      ,[DefaultFg]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[RewardsRoundingRules]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSROUNDINGRULES</t>
+  </si>
+  <si>
+    <t>RewardsRoundingRules</t>
+  </si>
+  <si>
+    <t>Copy_RewardsRoundingRules</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsProgramDefaults</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsProgramDefaults</t>
+  </si>
+  <si>
+    <t>SELECT [RewardsProgramDefaultId]
+      ,[RewardsProgramURL]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[RewardsProgramDefaults]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSPROGRAMDEFAULTS</t>
+  </si>
+  <si>
+    <t>RewardsProgramDefaults</t>
+  </si>
+  <si>
+    <t>Copy_RewardsProgramDefaults</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsBonusCodes</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsBonusCodes</t>
+  </si>
+  <si>
+    <t>SELECT [BonusCodeId]
+      ,[Name]
+      ,[Code]
+      ,[Description]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[RewardsBonusCodes]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSBONUSCODES</t>
+  </si>
+  <si>
+    <t>RewardsBonusCodes</t>
+  </si>
+  <si>
+    <t>Copy_RewardsBonusCodes</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsAdjustmentCode</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsAdjustmentCodes</t>
+  </si>
+  <si>
+    <t>SELECT [AdjustmentCodeId]
+      ,[Name]
+      ,[Code]
+      ,[Description]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[RewardsAdjustmentCodes]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSADJUSTMENTCODES</t>
+  </si>
+  <si>
+    <t>RewardsAdjustmentCodes</t>
+  </si>
+  <si>
+    <t>Copy_RewardsAdjustmentCodes</t>
+  </si>
+  <si>
+    <t>DS_SF_programSettings</t>
+  </si>
+  <si>
+    <t>DS_ASQL_programSettings</t>
+  </si>
+  <si>
+    <t>SELECT [programSettingsId]
+      ,[externalSettingId]
+      ,[CreateDate]
+      ,[ModifyDate]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[programSettings]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.PROGRAMSETTINGS</t>
+  </si>
+  <si>
+    <t>programSettings</t>
+  </si>
+  <si>
+    <t>Copy_programSettings</t>
+  </si>
+  <si>
+    <t>DS_SF_map_status</t>
+  </si>
+  <si>
+    <t>DS_ASQL_map_status</t>
+  </si>
+  <si>
+    <t>SELECT [source_system_key]
+      ,[source_system]
+      ,[external_status_code]
+      ,[external_status_code_desc]
+      ,[internal_status_code]
+      ,[internal_status_code_desc]
+      ,[rewards_status_code]
+      ,[rewards_status]
+      ,[rewards_status_reason_code]
+      ,[rewards_status_reason]
+      ,[earn]
+      ,[redeem]
+      ,[points_are_forfeited]
+      ,[load_by]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[map_status]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.MAP_STATUS</t>
+  </si>
+  <si>
+    <t>map_status</t>
+  </si>
+  <si>
+    <t>Copy_map_status</t>
+  </si>
+  <si>
+    <t>DS_SF_CashbackMethods</t>
+  </si>
+  <si>
+    <t>DS_ASQL_CashbackMethods</t>
+  </si>
+  <si>
+    <t>SELECT [CashbackMethodId]
+      ,[Name]
+      ,[Description]
+	  ,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+  FROM [dbo].[CashbackMethods]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.CASHBACKMETHODS</t>
+  </si>
+  <si>
+    <t>CashbackMethods</t>
+  </si>
+  <si>
+    <t>Copy_CashbackMethods</t>
+  </si>
+  <si>
+    <t>DS_SF_AccountTypes</t>
+  </si>
+  <si>
+    <t>DS_ASQL_AccountTypes</t>
+  </si>
+  <si>
+    <t>SELECT [AccountTypeId]
+,[Name]
+,[Description]
+,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+FROM [dbo].[AccountTypes]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.ACCOUNTTYPES</t>
+  </si>
+  <si>
+    <t>AccountTypes</t>
+  </si>
+  <si>
+    <t>Copy_AccountTypes</t>
+  </si>
+  <si>
+    <t>DS_SF_REWARDSPROGRAMS</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsPrograms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+[RewardsProgramId],
+	[RewardsConfigurationId],
+	[RewardsProgramTypeId],
+	[RewardsTypeId],
+	[RewardsRoundingRuleId],
+	[RewardsProgramURL],
+	[RewardsProgramExternalId],
+	[StartDate],
+	[EndDate],
+	[CreateDate],
+	[CreateBy],
+	[ModifyDate],
+	[ModifyBy],
+	[ProgramCode]
+	,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+from [dbo].[RewardsPrograms]
+</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSPROGRAMS</t>
+  </si>
+  <si>
+    <t>RewardsPrograms</t>
+  </si>
+  <si>
+    <t>Eastern Standard Time</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>ScheduleTrigger</t>
+  </si>
+  <si>
+    <t>TR_Daily_Rewards_ProgramBINs_to_SF</t>
+  </si>
+  <si>
+    <t>Copy_RewardsPrograms</t>
+  </si>
+  <si>
+    <t>PL_Rewards_ProgramBINs_to_SF_Daily</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsProgramBINs</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsProgramBINs</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSPROGRAMBINS;</t>
+  </si>
+  <si>
+    <t>RewardsProgramBINs</t>
+  </si>
+  <si>
+    <t>Copy_RewardsProgramBINs_to_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsProgramBINExtensions</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsProgramBINExtensions</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSPROGRAMBINEXTENSIONS</t>
+  </si>
+  <si>
+    <t>RewardsProgramBINExtensions</t>
+  </si>
+  <si>
+    <t>Copy_RewardsProgramBINExtensions_to_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsProgramTypes</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsProgramTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select [RewardsProgramTypeId],
+	[Name],
+	[Code],
+CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+from [dbo].[RewardsProgramTypes]
+</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSPROGRAMTYPES</t>
+  </si>
+  <si>
+    <t>RewardsProgramTypes</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>TR_Weekly_Rewards_Configuration_to_SF</t>
+  </si>
+  <si>
+    <t>Copy_RewardsProgramTypes</t>
+  </si>
+  <si>
+    <t>PL_Rewards_Configuration_to_SF_Weekly</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsConfigurationStatementOptions</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsConfigurationStatementOptions</t>
+  </si>
+  <si>
+    <t>SELECT RewardsConfigurationId
+      ,[RewardsStatementOptionId]
+      ,[Status]
+      ,[CreateDate]
+      ,[CreateBy]
+      ,[ModifyDate]
+      ,[ModifyBy]
+      ,[DeleteDate]
+      ,[DeleteBy]
+,CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+FROM [dbo].[RewardsConfigurationStatementOptions]</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE REWARDS.REWARDSCONFIGURATIONSTATEMENTOPTIONS</t>
+  </si>
+  <si>
+    <t>RewardsConfigurationStatementOptions</t>
+  </si>
+  <si>
+    <t>Copy_RewardsConfigurationStatementOptions_to_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_RewardsConfiguration</t>
+  </si>
+  <si>
+    <t>DS_ASQL_RewardsConfiguration</t>
+  </si>
+  <si>
+    <t>SELECT 
+RewardsConfigurationId ,
+	ClientId  ,
+	ClientNumber ,
+	EnableRewardsAPI,
+	CashbackSourceAccountTypeId ,
+	CashbackFundingAccountNumber ,
+	CashbackRoutingTransitNumber ,
+	CashbackMethodId ,
+	CallCenter800Number ,
+	CreateBy ,
+	CreateDate ,
+	ModifyBy,
+	ModifyDate ,
+	CashbackMethodTestId ,
+	MerchantName ,
+   MerchantNumber,
+	SftpLocation,
+	ExternalOrgId ,
+CURRENT_TIMESTAMP as LOAD_DATE
+,'ADF - ETL' as LOAD_TYPE
+,'ADF' as CREATED_USER
+,CURRENT_TIMESTAMP as CREATE_DATE
+from [dbo].[RewardsConfiguration]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNCATE TABLE APPLICATION_DB.REWARDS.REWARDSCONFIGURATION </t>
+  </si>
+  <si>
+    <t>RewardsConfiguration</t>
+  </si>
+  <si>
+    <t>Copy_RewardsConfiguration_to_SF</t>
+  </si>
+  <si>
+    <t>Populates Snowflake table for wbe</t>
+  </si>
+  <si>
+    <t>DS_SF_Sem_WBEscore</t>
+  </si>
+  <si>
+    <t>DS_ASDW_Vw_wbescore</t>
+  </si>
+  <si>
+    <t>[[sem].[s_WBEScore]</t>
+  </si>
+  <si>
+    <t>truncate table "CONSOLIDATE"."SEM"."WBESCORE";</t>
+  </si>
+  <si>
+    <t>vw_WBEScore</t>
+  </si>
+  <si>
+    <t>To_Sem_WBEScore</t>
+  </si>
+  <si>
+    <t>PL_Populate_WBEScore</t>
+  </si>
+  <si>
+    <t>DS_SF_CardUsage_Analysis_Preagg_DCI_SEM</t>
+  </si>
+  <si>
+    <t>DS_SF_Cardusage_Analysis_Preagg_DCI_STAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">truncate table sem.cardusage_analysis_preagg_dci;
+</t>
+  </si>
+  <si>
+    <t>Stage_Preagg_DCI_To_SEM</t>
+  </si>
+  <si>
+    <t>PL_populate_semDigitalCardUsageAnalysis_dci</t>
+  </si>
+  <si>
+    <t>DS_SF_CardUsage_Analysis_Monthly_SEM</t>
+  </si>
+  <si>
+    <t>DS_SF_Cardusage_Analysis_Monthly_DCI_STAGE</t>
+  </si>
+  <si>
+    <t>truncate table sem.cardusage_analysis_monthly_dci;</t>
+  </si>
+  <si>
+    <t>Stage_Monthly_DCI_To_SEM</t>
+  </si>
+  <si>
+    <t>DS_SF_CardUsage_Analysis_Preagg_DCI_ARCHIVE</t>
+  </si>
+  <si>
+    <t>truncate table archive.cardusage_analysis_preagg_dci;</t>
+  </si>
+  <si>
+    <t>SEM_Preagg_DCI_To_Archive</t>
+  </si>
+  <si>
+    <t>DS_SF_CardUsage_Analysis_Monthly_DCI_ARCHIVE</t>
+  </si>
+  <si>
+    <t>truncate table archive.cardusage_analysis_monthly_dci;</t>
+  </si>
+  <si>
+    <t>SEM_Monthly_DCI_To_Archive</t>
+  </si>
+  <si>
+    <t>vw_CardUsageAnalysis_preagg_dci</t>
+  </si>
+  <si>
+    <t>truncate table stage.cardusage_analysis_preagg_dci;</t>
+  </si>
+  <si>
+    <t>vw_cardusage_analysis_preagg_dci</t>
+  </si>
+  <si>
+    <t>pop_CardUsageStaging_preagg_dci</t>
+  </si>
+  <si>
+    <t>vw_CardUsageAnalysis_monthly_dci</t>
+  </si>
+  <si>
+    <t>truncate table stage.cardusage_analysis_monthly_dci;</t>
+  </si>
+  <si>
+    <t>vw_cardusage_analysis_monthly_dci</t>
+  </si>
+  <si>
+    <t>copy_cardusage_analysis_monthly_dci</t>
+  </si>
+  <si>
+    <t>Populates Snowflake table for Scorebands</t>
+  </si>
+  <si>
+    <t>DS_SF_Sem_Scorebands</t>
+  </si>
+  <si>
+    <t>DS_ASDW_Vw_Scorebands</t>
+  </si>
+  <si>
+    <t>[[sem].[s_Scorebands]</t>
+  </si>
+  <si>
+    <t>truncate table "CONSOLIDATE"."SEM"."SCOREBANDS";</t>
+  </si>
+  <si>
+    <t>vw_ScoreBands</t>
+  </si>
+  <si>
+    <t>To_Sem_Scorebands</t>
+  </si>
+  <si>
+    <t>PL_Populate_Scorebands</t>
+  </si>
+  <si>
+    <t>DS_SF_FinancialInstitution_Dim_Portfolio_Size</t>
+  </si>
+  <si>
+    <t>Azure SQL DW/FinancialInstituition</t>
+  </si>
+  <si>
+    <t>DS_ASDW_Dim_Portfolio_Size</t>
+  </si>
+  <si>
+    <t>select *, 'ETL USER' as created_by, 'ETL USER' as modified_by, getdate() as modified_date from financialinstitution.dim_portfolio_size</t>
+  </si>
+  <si>
+    <t>truncate table FINANCIALINSTITUTION.DIM_PORTFOLIO_SIZE</t>
+  </si>
+  <si>
+    <t>TR_Daily_PB_Datasets_Azure_to_SF</t>
+  </si>
+  <si>
+    <t>Copy_Dim_Portfolio_size_Synapse_to_SF</t>
+  </si>
+  <si>
+    <t>PL_Populate_PB_Datasets_Azure_to_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_FinancialInstitution_Dim_Geographic_Region</t>
+  </si>
+  <si>
+    <t>DS_ASDW_Dim_Geographic_Region</t>
+  </si>
+  <si>
+    <t>select *, 'ETL USER' as created_by, 'ETL USER' as modified_by , getdate() as modified_date from financialinstitution.dim_geographic_region</t>
+  </si>
+  <si>
+    <t>truncate table FINANCIALINSTITUTION.DIM_GEOGRAPHIC_REGION</t>
+  </si>
+  <si>
+    <t>Copy_Dim_Geographic_Region_size_Synapse_to_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_FinancialInstitution_Dim_Client</t>
+  </si>
+  <si>
+    <t>Azure SQL DW/Dimensions</t>
+  </si>
+  <si>
+    <t>dim_Client</t>
+  </si>
+  <si>
+    <t>select *, 'etl user' as created_by, 'etl user' as modified_by, getdate() as modified_date from financialinstitution.dim_client</t>
+  </si>
+  <si>
+    <t>truncate table FINANCIALINSTITUTION.DIM_CLIENT</t>
+  </si>
+  <si>
+    <t>dim_client</t>
+  </si>
+  <si>
+    <t>Copy_Dim_Client_Synapse_to_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_FinancialInstitution_Dim_Asset_Size</t>
+  </si>
+  <si>
+    <t>DS_ASDW_Dim_Asset_Size</t>
+  </si>
+  <si>
+    <t>select *, 'ETL USER' as created_by, 'ETL USER' as modified_by, getdate() as modified_date from financialinstitution.dim_asset_size</t>
+  </si>
+  <si>
+    <t>truncate table FINANCIALINSTITUTION.DIM_ASSET_SIZE</t>
+  </si>
+  <si>
+    <t>Copy_Dim_Asset_size_Synapse_to_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_Sem_FraudHeatmap</t>
+  </si>
+  <si>
+    <t>DS_ASDW_Vw_FraudHeatMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truncate CONSOLIDATE.SEM.FRAUDHEATMAP </t>
+  </si>
+  <si>
+    <t>vw_FraudHeatMap</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>TR_Daily_Heatmap</t>
+  </si>
+  <si>
+    <t>To_SEM_FRAUDHEATMAP</t>
+  </si>
+  <si>
+    <t>PL_Populate_FraudHeatmap</t>
+  </si>
+  <si>
+    <t>SnowFlake/Common</t>
+  </si>
+  <si>
+    <t>Snowflake_COMMON_DimDateDashboard</t>
+  </si>
+  <si>
+    <t>Azure SQL DW/Common</t>
+  </si>
+  <si>
+    <t>common_date_dashboard</t>
+  </si>
+  <si>
+    <t>Truncate Table CONSOLIDATE.COMMON.DIM_DATE_DASHBOARD</t>
+  </si>
+  <si>
+    <t>dim_date_dashboard</t>
+  </si>
+  <si>
+    <t>pop_dim_date_dashboard_SF</t>
+  </si>
+  <si>
+    <t>PL_populate_Dim_Date_Dashboard</t>
+  </si>
+  <si>
+    <t>Populates Snowflake table for Detection Rate</t>
+  </si>
+  <si>
+    <t>DS_SF_Sem_DetectionRate</t>
+  </si>
+  <si>
+    <t>This is the view for detection rate from Consolidated DW in Azure</t>
+  </si>
+  <si>
+    <t>DS_ASDW_Vw_DetectionRate</t>
+  </si>
+  <si>
+    <t>[[sem].[s_DetectionRate]</t>
+  </si>
+  <si>
+    <t>truncate table "CONSOLIDATE"."SEM"."DETECTIONRATE"</t>
+  </si>
+  <si>
+    <t>vw_DetectionRate</t>
+  </si>
+  <si>
+    <t>Tr_Daily_Populate_DetectionRate_ConsDW_Snowfalke</t>
+  </si>
+  <si>
+    <t>To_Sem_DetectionRate</t>
+  </si>
+  <si>
+    <t>PL_Populate_DetectionRate</t>
+  </si>
+  <si>
+    <t>DS_SF_Application_DB_DCI</t>
+  </si>
+  <si>
+    <t>LS_ASQM_ExtendedPayment</t>
+  </si>
+  <si>
+    <t>AzureSqlMITable</t>
+  </si>
+  <si>
+    <t>DS_ASQM_ExtendedPayment</t>
+  </si>
+  <si>
+    <t>SqlMISource</t>
+  </si>
+  <si>
+    <t>@concat('SELECT *,getdate() as CREATE_DTM,getdate() as UPDATE_DTM FROM EXTENDEDPAYMENT.dbo.vw_POTT_EP_PLAN WHERE PROMOTION_UPDATE_DTM &gt;',
+'''',activity('EP_PLAN_LOOKUP').output.firstRow.MAX_PROMOTION_UPDATE_DTM,''' OR PROMOTION_CREATE_DTM &gt; ', 
+'''',activity('EP_PLAN_LOOKUP').output.firstRow.MAX_PROMOTION_UPDATE_DTM, '''')</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE EXTENDED_PAYMENT.STAGING_EXTENDED_PAYMENT_PLAN;</t>
+  </si>
+  <si>
+    <t>@dataset().par_table</t>
+  </si>
+  <si>
+    <t>@dataset().par_schema</t>
+  </si>
+  <si>
+    <t>@dataset().Table_Name</t>
+  </si>
+  <si>
+    <t>@dataset().Schema_Name</t>
+  </si>
+  <si>
+    <t>EP_PLAN</t>
+  </si>
+  <si>
+    <t>PL_Master_POTT_EP_Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@concat('SELECT *,getdate() as CREATE_DTM,getdate() as UPDATE_DTM FROM EXTENDEDPAYMENT.dbo.vw_POTT_EP_OFFER WHERE PLAN_UPDATE_DTM &gt;',
+'''',activity('EP_OFFER_LOOKUP').output.firstRow.MAX_PLAN_UPDATE_DTM,''' OR OFFER_CREATE_DTM &gt; ', 
+'''',activity('EP_OFFER_LOOKUP').output.firstRow.MAX_PLAN_UPDATE_DTM, '''')
+</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE EXTENDED_PAYMENT.STAGING_EXTENDED_PAYMENT_OFFER;</t>
+  </si>
+  <si>
+    <t>EP_OFFER</t>
+  </si>
+  <si>
+    <t>PL_Master_POTT_EP_Offer</t>
+  </si>
+  <si>
+    <t>@concat('SELECT *,getdate() as CREATE_DTM,getdate() as UPDATE_DTM FROM dbo.vw_POTT_EP_LOAN WHERE LOAN_UPDATE_DTM &gt;',
+'''',activity('EP_LOAN_LOOKUP').output.firstRow.MAX_LOAN_UPDATE_DTM,''' OR LOAN_CREATE_DTM &gt; ', 
+'''',activity('EP_LOAN_LOOKUP').output.firstRow.MAX_LOAN_UPDATE_DTM, '''')</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE EXTENDED_PAYMENT.STAGING_EXTENDED_PAYMENT_LOAN;</t>
+  </si>
+  <si>
+    <t>EP_LOAN</t>
+  </si>
+  <si>
+    <t>PL_Master_POTT_EP_Loan</t>
+  </si>
+  <si>
+    <t>ApplicationODS</t>
+  </si>
+  <si>
+    <t>DS_ASQL_AppODS_DCI</t>
+  </si>
+  <si>
+    <t>Truncate Table  "APPLICATION_DB"."DCI"."PAR"</t>
+  </si>
+  <si>
+    <t>TR_Daily_DCI_AzuretoSF</t>
+  </si>
+  <si>
+    <t>copy_Par</t>
+  </si>
+  <si>
+    <t>PL_Master_DCI_AzuretoSnowflake</t>
+  </si>
+  <si>
+    <t>DS_SF_Application_DB_DCI_Stg</t>
+  </si>
+  <si>
+    <t>SELECT DIGITALCARDISSUANCEID, CLIENTNUM, CARDNUM, CARDACCESSEDDTE, ISSUEDTE, CARDACTIVATIONDTE,  TRY_CAST(SOURCE_SYSTEM_KEY AS INT) AS SOURCE_SYSTEM_KEY, CREATEDTE, MODIFYDTE,
+  EOMONTH(cast(LEFT(CARDEXPIRATIONDTE,2)+'/01'+'/'+'20'+SUBSTRING(CARDEXPIRATIONDTE,3,2) as date))  AS CARDEXPIRATIONDTE FROM @{activity('DigitalCardIssuance').output.firstRow.SCHEMA_NAME}.@{activity('DigitalCardIssuance').output.firstRow.TABLE_NAME}
+WHERE (cast(left(CardExpirationDte, 2) as int) between 1 and 12)
+  and ClientNum &lt;&gt; '0000'
+  and len(trim(CardExpirationDte)) = 4</t>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE @{activity('DigitalCardIssuance').output.firstRow.SCHEMA_NAME}.@{activity('DigitalCardIssuance').output.firstRow.TABLE_NAME}_stg;</t>
+  </si>
+  <si>
+    <t>DCI_STAGE</t>
+  </si>
+  <si>
+    <t>PL_DCI_CardIssuance_ASQL_SF</t>
+  </si>
+  <si>
+    <t>DS_SF_APPLICATIONDB_DCI</t>
+  </si>
+  <si>
+    <t>SELECT DSTG.*, GETDATE() AS load_dte, 
+FROM @{activity('DigitalCardIssuance').output.firstRow.SCHEMA_NAME}.@{activity('DigitalCardIssuance').output.firstRow.TABLE_NAME}_stg  DSTG 
+left join @{activity('DigitalCardIssuance').output.firstRow.SCHEMA_NAME}.@{activity('DigitalCardIssuance').output.firstRow.TABLE_NAME} 
+DCI ON @{activity('DigitalCardIssuance').output.firstRow.JOIN_COLUMN} 
+WHERE @{activity('DigitalCardIssuance').output.firstRow.KEY_COLUMN_CONDITION}</t>
+  </si>
+  <si>
+    <t>DCI_DIGITALCARDISSUANCE</t>
+  </si>
+  <si>
+    <t>OutputDatasetFileName</t>
+  </si>
+  <si>
+    <t>OutputDatasetFolderPath</t>
+  </si>
+  <si>
+    <t>OutputDatasetFileLocation</t>
+  </si>
+  <si>
+    <t>OutputDatasetDescription</t>
+  </si>
+  <si>
+    <t>OutputDatasetFolder</t>
+  </si>
+  <si>
+    <t>OutputDatasetLinkedService</t>
+  </si>
+  <si>
+    <t>OutputDatasetType</t>
+  </si>
+  <si>
+    <t>OutputDataset</t>
+  </si>
+  <si>
+    <t>InputDatasetFileName</t>
+  </si>
+  <si>
+    <t>InputDatasetFolderPath</t>
+  </si>
+  <si>
+    <t>InputDatasetDescription</t>
+  </si>
+  <si>
+    <t>InputDatasetFolder</t>
+  </si>
+  <si>
+    <t>InputDatasetLinkedService</t>
+  </si>
+  <si>
+    <t>InputDatasetType</t>
+  </si>
+  <si>
+    <t>InputReferenceName</t>
+  </si>
+  <si>
+    <t>typeProperties.source.type</t>
+  </si>
+  <si>
+    <t>typeProperties.source.sqlReaderStoredProcedureName</t>
+  </si>
+  <si>
+    <t>typeProperties.source.sqlReaderQuery.value</t>
+  </si>
+  <si>
+    <t>typeProperties.source.sqlReaderQuery.type</t>
+  </si>
+  <si>
+    <t>typeProperties.source.sqlReaderQuery</t>
+  </si>
+  <si>
+    <t>typeProperties.source.query.value</t>
+  </si>
+  <si>
+    <t>typeProperties.source.query.type</t>
+  </si>
+  <si>
+    <t>typeProperties.source.query</t>
+  </si>
+  <si>
+    <t>typeProperties.sink.preCopyScript.value</t>
+  </si>
+  <si>
+    <t>typeProperties.sink.preCopyScript.type</t>
+  </si>
+  <si>
+    <t>typeProperties.sink.preCopyScript</t>
+  </si>
+  <si>
+    <t>OutputDatasetTargetTable</t>
+  </si>
+  <si>
+    <t>OutputDatasetTargetSchema</t>
+  </si>
+  <si>
+    <t>InputDatasetTargetTable</t>
+  </si>
+  <si>
+    <t>InputDatasetTargetSchema</t>
+  </si>
+  <si>
+    <t>TriggerTimeZone</t>
+  </si>
+  <si>
+    <t>TriggerStartTime</t>
+  </si>
+  <si>
+    <t>TriggerFrequency</t>
+  </si>
+  <si>
+    <t>TriggerRuntimeState</t>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>TriggerName</t>
+  </si>
+  <si>
+    <t>CopyActivityName</t>
+  </si>
+  <si>
+    <t>PipelineName</t>
+  </si>
+  <si>
+    <t>billing_client_exceptions.csv</t>
+  </si>
+  <si>
+    <t>Reference/Billing</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>{
+                    "location": {
+                        "type": "AzureBlobFSLocation",
+                        "fileName": "billing_client_exceptions.csv",
+                        "folderPath": "Reference/Billing",
+                        "fileSystem": "stage"
+                    },
+                    "columnDelimiter": "\t",
+                    "escapeChar": "\\",
+                    "firstRowAsHeader": true,
+                    "quoteChar": "\""
+                }</t>
+  </si>
+  <si>
+    <t>[
+                    {
+                        "name": "client_number",
+                        "type": "String"
+                    },
+                    {
+                        "name": "source_system_key",
+                        "type": "String"
+                    }
+                ]</t>
+  </si>
+  <si>
+    <t>Data Lake Storage/Stage</t>
+  </si>
+  <si>
+    <t>EnterpriseDataSource</t>
+  </si>
+  <si>
+    <t>DelimitedText</t>
+  </si>
+  <si>
+    <t>DS_stgBillingException</t>
+  </si>
+  <si>
+    <t>stage/Reference/Billing/billing_client_exceptions.csv</t>
+  </si>
+  <si>
+    <t>srcClientExceptions</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>IC_Billing</t>
+  </si>
+  <si>
+    <t>billing_client_blacklist.csv</t>
+  </si>
+  <si>
+    <t>{
+                    "location": {
+                        "type": "AzureBlobFSLocation",
+                        "fileName": "billing_client_blacklist.csv",
+                        "folderPath": "Reference/Billing",
+                        "fileSystem": "stage"
+                    },
+                    "columnDelimiter": ",",
+                    "escapeChar": "\\",
+                    "firstRowAsHeader": true,
+                    "quoteChar": "\""
+                }</t>
+  </si>
+  <si>
+    <t>[
+                    {
+                        "name": "client_number",
+                        "type": "String"
+                    }
+                ]</t>
+  </si>
+  <si>
+    <t>stg_BillingClientBlacklist</t>
+  </si>
+  <si>
+    <t>stage/Reference/Billing/billing_client_blacklist.csv</t>
+  </si>
+  <si>
+    <t>srcClientBlacklist</t>
+  </si>
+  <si>
+    <t>dim_routing_number</t>
+  </si>
+  <si>
+    <t>{
+                    "schema": "FinancialInstitution",
+                    "table": "dim_routing_number"
+                }</t>
+  </si>
+  <si>
+    <t>[
+                    {
+                        "name": "routing_number_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "source_system_key",
+                        "type": "int",
+                        "precision": 10
+                    },
+                    {
+                        "name": "source_system_id",
+                        "type": "varchar"
+                    },
+                    {
+                        "name": "routing_number",
+                        "type": "varchar"
+                    },
+                    {
+                        "name": "is_pseudo",
+                        "type": "bit"
+                    },
+                    {
+                        "name": "is_primary",
+                        "type": "bit"
+                    },
+                    {
+                        "name": "client_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "create_date",
+                        "type": "datetime2",
+                        "scale": 2
+                    }
+                ]</t>
+  </si>
+  <si>
+    <t>dim_Routing_Number</t>
+  </si>
+  <si>
+    <t>FinancialInstitution.dim_routing_number</t>
+  </si>
+  <si>
+    <t>dwRTN</t>
+  </si>
+  <si>
+    <t>fact_transaction</t>
+  </si>
+  <si>
+    <t>{
+                    "schema": "transaction",
+                    "table": "fact_transaction"
+                }</t>
+  </si>
+  <si>
+    <t>[
+                    {
+                        "name": "transaction_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "source_system_key",
+                        "type": "int",
+                        "precision": 10
+                    },
+                    {
+                        "name": "source_system_id",
+                        "type": "varchar"
+                    },
+                    {
+                        "name": "account_key",
+                        "type": "varchar"
+                    },
+                    {
+                        "name": "acquirer_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "Acquirer_Network_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "bin_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "card_entry_method_code_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "card_presence_desc",
+                        "type": "varchar"
+                    },
+                    {
+                        "name": "import_file_date_key",
+                        "type": "date"
+                    },
+                    {
+                        "name": "interchange_amount",
+                        "type": "decimal",
+                        "precision": 25,
+                        "scale": 2
+                    },
+                    {
+                        "name": "issuer_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "issuer_network_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "merchant_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "merchant_terminal_geography_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "merchant_type_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "monetary",
+                        "type": "bit"
+                    },
+                    {
+                        "name": "on_us_desc",
+                        "type": "varchar"
+                    },
+                    {
+                        "name": "transmission_date_key",
+                        "type": "date"
+                    },
+                    {
+                        "name": "origin_date_key",
+                        "type": "date"
+                    },
+                    {
+                        "name": "recurring_desc",
+                        "type": "varchar"
+                    },
+                    {
+                        "name": "response_code_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "settlement_amount",
+                        "type": "decimal",
+                        "precision": 25,
+                        "scale": 2
+                    },
+                    {
+                        "name": "settlement_date_key",
+                        "type": "date"
+                    },
+                    {
+                        "name": "surcharge_amount",
+                        "type": "decimal",
+                        "precision": 25,
+                        "scale": 2
+                    },
+                    {
+                        "name": "termnial_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "token_requestid",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "transaction_name_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "Transaction_type_key",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "run_id",
+                        "type": "bigint",
+                        "precision": 19
+                    },
+                    {
+                        "name": "digital_card_issued_ind",
+                        "type": "bit"
+                    },
+                    {
+                        "name": "authorization_ind",
+                        "type": "bit"
+                    },
+                    {
+                        "name": "authorization_no",
+                        "type": "varchar"
+                    }
+                ]</t>
+  </si>
+  <si>
+    <t>Azure SQL DW/Facts</t>
+  </si>
+  <si>
+    <t>fact_Transaction</t>
+  </si>
+  <si>
+    <t>transaction.fact_transaction</t>
+  </si>
+  <si>
+    <t>dwFactTrans</t>
+  </si>
+  <si>
+    <t>{
+                    "schema": "SEM",
+                    "table": "USER"
+                }</t>
+  </si>
+  <si>
+    <t>[
+                    {
+                        "name": "CLIENTID",
+                        "type": "VARCHAR",
+                        "precision": 20,
+                        "scale": 0
+                    },
+                    {
+                        "name": "BINID",
+                        "type": "VARCHAR",
+                        "precision": 20,
+                        "scale": 0
+                    },
+                    {
+                        "name": "USERNAME",
+                        "type": "VARCHAR",
+                        "precision": 200,
+                        "scale": 0
+                    },
+                    {
+                        "name": "BIN",
+                        "type": "VARCHAR",
+                        "precision": 12,
+                        "scale": 0
+                    },
+                    {
+                        "name": "USERID",
+                        "type": "NUMBER",
+                        "precision": 38,
+                        "scale": 0
+                    }
+                ]</t>
+  </si>
+  <si>
+    <t>Snowflake_SEM_User</t>
+  </si>
+  <si>
+    <t>SEM.USER</t>
+  </si>
+  <si>
+    <t>srcUserSecurity</t>
+  </si>
+  <si>
+    <t>Billing/InsightsCenter</t>
+  </si>
+  <si>
+    <t>outbound</t>
+  </si>
+  <si>
+    <t>{
+                    "location": {
+                        "type": "AzureBlobFSLocation",
+                        "folderPath": "Billing/InsightsCenter",
+                        "fileSystem": "outbound"
+                    },
+                    "columnDelimiter": ",",
+                    "escapeChar": "\\",
+                    "firstRowAsHeader": true,
+                    "quoteChar": "\""
+                }</t>
+  </si>
+  <si>
+    <t>Data Lake Storage/Outbound</t>
+  </si>
+  <si>
+    <t>DS_snk_NeitherBilling_IC</t>
+  </si>
+  <si>
+    <t>Dynamic/Parameter</t>
+  </si>
+  <si>
+    <t>SinkNeither</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>DS_snk_OmahaBilling_IC</t>
+  </si>
+  <si>
+    <t>SinkOmaha</t>
+  </si>
+  <si>
+    <t>DS_snk_ConnexBilling_IC</t>
+  </si>
+  <si>
+    <t>SinkConnex</t>
+  </si>
+  <si>
+    <t>{
+                    "schema": {
+                        "value": "@dataset().par_schema",
+                        "type": "Expression"
+                    },
+                    "table": {
+                        "value": "@dataset().par_table",
+                        "type": "Expression"
+                    }
+                }</t>
+  </si>
+  <si>
+    <t>{
+                    "par_schema": {
+                        "type": "string"
+                    },
+                    "par_table": {
+                        "type": "string"
+                    }
+                }</t>
+  </si>
+  <si>
+    <t>srcPushToWalletReportData</t>
+  </si>
+  <si>
+    <t>DF_DCI_PTWRD_ASQL_SF</t>
+  </si>
+  <si>
+    <t>PL_DCI_PushToWalletReportData_ASQL_SF</t>
+  </si>
+  <si>
+    <t>snkPushToWalletReportData</t>
+  </si>
+  <si>
+    <t>srcPMTO</t>
+  </si>
+  <si>
+    <t>DF_DCI_PTMO_ASQL_SF</t>
+  </si>
+  <si>
+    <t>PL_DCI_PushToMerchOperations_ASQL_SF</t>
+  </si>
+  <si>
+    <t>snkPTMO</t>
+  </si>
+  <si>
+    <t>srcCardIssuance</t>
+  </si>
+  <si>
+    <t>DF_DCI_CardIssuance_ASQL_SF</t>
+  </si>
+  <si>
+    <t>snkCardIssuance</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>FolderPath</t>
+  </si>
+  <si>
+    <t>FileLocation</t>
+  </si>
+  <si>
+    <t>TargetSchema</t>
+  </si>
+  <si>
+    <t>TargetTable</t>
+  </si>
+  <si>
+    <t>TypeProperties</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>LinkedService</t>
+  </si>
+  <si>
+    <t>DatasetType</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>TargetLocation</t>
+  </si>
+  <si>
+    <t>FolderName</t>
+  </si>
+  <si>
+    <t>LinkedServiceName</t>
+  </si>
+  <si>
+    <t>DatasetReference</t>
+  </si>
+  <si>
+    <t>StepName</t>
+  </si>
+  <si>
+    <t>StepOrder</t>
+  </si>
+  <si>
+    <t>StepType</t>
+  </si>
+  <si>
+    <t>DataflowName</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
   </si>
 </sst>
 </file>
@@ -7753,7 +9883,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R672"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E257" sqref="E257"/>
     </sheetView>
@@ -35669,4 +37799,6801 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDBBCD-7499-473E-92A9-CCDA19448756}">
+  <dimension ref="A1:AL75"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="86.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="111.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="64" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="64" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="33" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2892</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2891</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2890</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2889</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2888</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2886</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2885</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>2884</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>2883</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>2882</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2881</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>2880</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>2879</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>2878</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>2877</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>2876</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>2875</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>2873</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>2872</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>2869</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>2868</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>2867</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>2866</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>2865</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>2864</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>2856</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>2855</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44895.993750000001</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>2845</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2841</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>2832</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>2830</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>2829</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44922.7055555556</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>2820</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>2813</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1" t="s">
+        <v>2810</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44577.71875</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44427.021527777797</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
+        <v>2798</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44427.021527777797</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44427.021527777797</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>44427.021527777797</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>2780</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>2773</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>2771</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>2755</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G23" s="3">
+        <v>44607.004861111098</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1" t="s">
+        <v>2733</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G24" s="3">
+        <v>44607.004861111098</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>2726</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="G25" s="3">
+        <v>44607.004861111098</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>44607.002777777801</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>44607.002777777801</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G28" s="3">
+        <v>44607.002777777801</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="AF29" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH30" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1" t="s">
+        <v>2678</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AF31" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG33" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH33" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG34" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH34" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA35" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="AF35" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH35" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>2649</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="AF36" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG36" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH36" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>2641</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>2640</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH38" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH39" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>2621</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="Z40" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="AA40" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG40" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AH40" s="1" t="s">
+        <v>2615</v>
+      </c>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z41" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="AF41" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH41" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="AF42" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG42" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="Y43" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>2603</v>
+      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="AF44" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG44" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="Y45" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z45" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG45" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="Y47" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z47" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA47" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="AF47" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG47" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH47" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1" t="s">
+        <v>2581</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z48" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA48" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="AF48" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG48" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH48" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>2569</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z50" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA50" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB50" s="1"/>
+      <c r="AC50" s="1"/>
+      <c r="AD50" s="1"/>
+      <c r="AE50" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="AF50" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG50" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH50" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="AF51" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>2564</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="Y52" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA52" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="AF52" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z53" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA53" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="AF53" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG53" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH53" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z54" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA54" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="AF54" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG54" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA55" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="AF55" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG55" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="Y56" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA56" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="AF56" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG56" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+      <c r="AL56" s="1"/>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA57" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="AF57" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG57" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH57" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AL57" s="1"/>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="Y58" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z58" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA58" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="AF58" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG58" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+      <c r="AL58" s="1"/>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="Y59" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z59" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA59" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="AF60" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG60" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="Y61" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z61" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA61" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="AF61" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG61" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="1"/>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="Y62" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z62" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA62" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="AF62" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG62" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="Y63" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z63" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA63" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="AF63" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG63" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="Y64" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z64" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AA64" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="AF64" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG64" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="Y65" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z65" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA65" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="AF65" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG65" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X66" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Y66" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z66" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA66" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="AF66" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG66" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="Y67" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z67" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA67" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="AF67" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG67" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="Y68" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z68" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA68" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="AF68" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG68" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="AF69" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG69" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="AF70" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z71" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA71" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="AF71" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG71" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="W72" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="Y72" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z72" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA72" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="AF72" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG72" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="Y73" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z73" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA73" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="AF73" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG73" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH73" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="Y74" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AA74" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="AF74" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG74" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="X75" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="Y75" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AA75" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="AF75" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="AG75" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="AH75" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AL75" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739219BB-E369-45F9-A9D0-727A7B555858}">
+  <dimension ref="A1:AB15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="125.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2896</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2893</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2892</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2980</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2979</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>2970</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>2969</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>2968</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>2967</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>2966</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>2965</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>2964</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>2963</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2958</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2955</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>2954</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>2924</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>2903</v>
+      </c>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AB15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/ComparisonOnlyBy_TABLE_NAME.xlsx
+++ b/Documents/ComparisonOnlyBy_TABLE_NAME.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokha\GitHub\Velera\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47C4193-4630-4DEE-8D66-1BE31E56F2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CEE9AA-751A-4BD7-B295-4DFA128D7C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="3930" windowWidth="48825" windowHeight="21780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RowCounts" sheetId="4" r:id="rId1"/>
@@ -9883,9 +9883,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R672"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E248" sqref="E248"/>
+    <sheetView topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A629" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D659" sqref="A659:XFD659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19543,7 +19543,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>534</v>
       </c>
@@ -19593,7 +19593,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>534</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>534</v>
       </c>
@@ -19693,7 +19693,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>534</v>
       </c>
@@ -19743,7 +19743,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>534</v>
       </c>
@@ -19793,7 +19793,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>534</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>534</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>534</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>534</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>534</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>534</v>
       </c>
@@ -36817,7 +36817,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>18</v>
       </c>
@@ -37789,6 +37789,11 @@
   <autoFilter ref="A1:R672" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="BASE TABLE"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37800,9 +37805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEDBBCD-7499-473E-92A9-CCDA19448756}">
   <dimension ref="A1:AL75"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43546,9 +43551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739219BB-E369-45F9-A9D0-727A7B555858}">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
